--- a/Data/sp500_data.xlsx
+++ b/Data/sp500_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6202"/>
+  <dimension ref="A1:B6204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50057,6 +50057,22 @@
         <v>5616.83984375</v>
       </c>
     </row>
+    <row r="6203">
+      <c r="A6203" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B6203" t="n">
+        <v>5625.7998046875</v>
+      </c>
+    </row>
+    <row r="6204">
+      <c r="A6204" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B6204" t="n">
+        <v>5592.18017578125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/sp500_data.xlsx
+++ b/Data/sp500_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6204"/>
+  <dimension ref="A1:B6206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50073,6 +50073,22 @@
         <v>5592.18017578125</v>
       </c>
     </row>
+    <row r="6205">
+      <c r="A6205" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B6205" t="n">
+        <v>5591.9599609375</v>
+      </c>
+    </row>
+    <row r="6206">
+      <c r="A6206" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B6206" t="n">
+        <v>5648.39990234375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/sp500_data.xlsx
+++ b/Data/sp500_data.xlsx
@@ -1,40 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>^GSPC CLOSE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +63,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -424,2400 +380,2390 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B297"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>^GSPC CLOSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
         <v>36526</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1394.4599609375</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
         <v>36557</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1366.420043945312</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
         <v>36586</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1498.579956054688</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
         <v>36617</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1452.430053710938</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
         <v>36647</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1420.599975585938</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
         <v>36678</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1454.599975585938</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
         <v>36708</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1430.829956054688</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
         <v>36739</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1517.680053710938</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
         <v>36770</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1436.510009765625</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
         <v>36800</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1429.400024414062</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
         <v>36831</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1314.949951171875</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
         <v>36861</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1320.280029296875</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
         <v>36892</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1366.010009765625</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
         <v>36923</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>1239.93994140625</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
         <v>36951</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1160.329956054688</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
         <v>36982</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>1249.4599609375</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
         <v>37012</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>1255.819946289062</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
         <v>37043</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1224.380004882812</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
         <v>37073</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>1211.22998046875</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
         <v>37104</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1133.579956054688</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
         <v>37135</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>1040.93994140625</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
         <v>37165</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1059.780029296875</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
         <v>37196</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1139.449951171875</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
         <v>37226</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1148.079956054688</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
         <v>37257</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1130.199951171875</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
         <v>37288</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1106.72998046875</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
         <v>37316</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1147.390014648438</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
         <v>37347</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1076.920043945312</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
         <v>37377</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1067.140014648438</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
         <v>37408</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>989.8200073242188</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
         <v>37438</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>911.6199951171875</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
         <v>37469</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>916.0700073242188</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
         <v>37500</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>815.280029296875</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
         <v>37530</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>885.760009765625</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
         <v>37561</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>936.3099975585938</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
         <v>37591</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>879.8200073242188</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
         <v>37622</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>855.7000122070312</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
         <v>37653</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>841.1500244140625</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
         <v>37681</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>848.1799926757812</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
         <v>37712</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>916.9199829101562</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
         <v>37742</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>963.5900268554688</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
         <v>37773</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>974.5</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
         <v>37803</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>990.3099975585938</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
         <v>37834</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>1008.010009765625</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
         <v>37865</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>995.969970703125</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
         <v>37895</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1050.7099609375</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
         <v>37926</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1058.199951171875</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
         <v>37956</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1111.920043945312</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
         <v>37987</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>1131.130004882812</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
         <v>38018</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>1144.93994140625</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
         <v>38047</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>1126.2099609375</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
         <v>38078</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>1107.300048828125</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
         <v>38108</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>1120.680053710938</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
         <v>38139</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>1140.839965820312</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
         <v>38169</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>1101.719970703125</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
         <v>38200</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>1104.239990234375</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
         <v>38231</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>1114.579956054688</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
         <v>38261</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>1130.199951171875</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
         <v>38292</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>1173.819946289062</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
         <v>38322</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>1211.920043945312</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
         <v>38353</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>1181.27001953125</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
         <v>38384</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>1203.599975585938</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
         <v>38412</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>1180.589965820312</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
         <v>38443</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>1156.849975585938</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
         <v>38473</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>1191.5</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
         <v>38504</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>1191.329956054688</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
         <v>38534</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>1234.180053710938</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
         <v>38565</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>1220.329956054688</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
         <v>38596</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>1228.81005859375</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
         <v>38626</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>1207.010009765625</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
         <v>38657</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>1249.47998046875</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
         <v>38687</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>1248.2900390625</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
         <v>38718</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>1280.079956054688</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
         <v>38749</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>1280.660034179688</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
         <v>38777</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>1294.869995117188</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
         <v>38808</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>1310.609985351562</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
         <v>38838</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>1270.089965820312</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
         <v>38869</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>1270.199951171875</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
         <v>38899</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>1276.660034179688</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
         <v>38930</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>1303.819946289062</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
         <v>38961</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>1335.849975585938</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
         <v>38991</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>1377.93994140625</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
         <v>39022</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>1400.630004882812</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:2">
+      <c r="A85" s="2">
         <v>39052</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>1418.300048828125</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:2">
+      <c r="A86" s="2">
         <v>39083</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>1438.239990234375</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:2">
+      <c r="A87" s="2">
         <v>39114</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>1406.819946289062</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:2">
+      <c r="A88" s="2">
         <v>39142</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>1420.859985351562</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:2">
+      <c r="A89" s="2">
         <v>39173</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>1482.369995117188</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:2">
+      <c r="A90" s="2">
         <v>39203</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>1530.619995117188</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:2">
+      <c r="A91" s="2">
         <v>39234</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>1503.349975585938</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
         <v>39264</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>1455.27001953125</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
         <v>39295</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>1473.989990234375</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
         <v>39326</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>1526.75</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
         <v>39356</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>1549.380004882812</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
         <v>39387</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>1481.140014648438</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:2">
+      <c r="A97" s="2">
         <v>39417</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>1468.359985351562</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
         <v>39448</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>1378.550048828125</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
         <v>39479</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>1330.630004882812</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:2">
+      <c r="A100" s="2">
         <v>39508</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>1322.699951171875</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
         <v>39539</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>1385.589965820312</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:2">
+      <c r="A102" s="2">
         <v>39569</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>1400.380004882812</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
         <v>39600</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>1280</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
         <v>39630</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>1267.380004882812</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
         <v>39661</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>1282.829956054688</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
         <v>39692</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>1166.359985351562</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
         <v>39722</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>968.75</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
         <v>39753</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>896.239990234375</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
         <v>39783</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>903.25</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
         <v>39814</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>825.8800048828125</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
         <v>39845</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>735.0900268554688</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
         <v>39873</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>797.8699951171875</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
         <v>39904</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>872.8099975585938</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
         <v>39934</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>919.1400146484375</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
         <v>39965</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>919.3200073242188</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
         <v>39995</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>987.47998046875</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
         <v>40026</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>1020.619995117188</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
         <v>40057</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>1057.079956054688</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
         <v>40087</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>1036.18994140625</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
         <v>40118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>1095.630004882812</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
         <v>40148</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>1115.099975585938</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
         <v>40179</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>1073.869995117188</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
         <v>40210</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>1104.489990234375</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
         <v>40238</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>1169.430053710938</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:2">
+      <c r="A125" s="2">
         <v>40269</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>1186.68994140625</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:2">
+      <c r="A126" s="2">
         <v>40299</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>1089.410034179688</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:2">
+      <c r="A127" s="2">
         <v>40330</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>1030.7099609375</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:2">
+      <c r="A128" s="2">
         <v>40360</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>1101.599975585938</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
         <v>40391</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>1049.329956054688</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
         <v>40422</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>1141.199951171875</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
         <v>40452</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>1183.260009765625</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
         <v>40483</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>1180.550048828125</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
         <v>40513</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>1257.640014648438</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
         <v>40544</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>1286.119995117188</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
         <v>40575</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>1327.219970703125</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
         <v>40603</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>1325.829956054688</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
         <v>40634</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>1363.609985351562</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
         <v>40664</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>1345.199951171875</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
         <v>40695</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>1320.640014648438</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
         <v>40725</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>1292.280029296875</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:2">
+      <c r="A141" s="2">
         <v>40756</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>1218.890014648438</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
         <v>40787</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>1131.420043945312</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:2">
+      <c r="A143" s="2">
         <v>40817</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>1253.300048828125</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:2">
+      <c r="A144" s="2">
         <v>40848</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>1246.9599609375</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:2">
+      <c r="A145" s="2">
         <v>40878</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>1257.599975585938</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:2">
+      <c r="A146" s="2">
         <v>40909</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>1312.410034179688</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:2">
+      <c r="A147" s="2">
         <v>40940</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>1365.680053710938</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:2">
+      <c r="A148" s="2">
         <v>40969</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>1408.469970703125</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:2">
+      <c r="A149" s="2">
         <v>41000</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>1397.910034179688</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:2">
+      <c r="A150" s="2">
         <v>41030</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>1310.329956054688</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:2">
+      <c r="A151" s="2">
         <v>41061</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>1362.160034179688</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:2">
+      <c r="A152" s="2">
         <v>41091</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>1379.319946289062</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:2">
+      <c r="A153" s="2">
         <v>41122</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>1406.579956054688</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:2">
+      <c r="A154" s="2">
         <v>41153</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>1440.670043945312</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:2">
+      <c r="A155" s="2">
         <v>41183</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>1412.160034179688</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:2">
+      <c r="A156" s="2">
         <v>41214</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>1416.180053710938</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:2">
+      <c r="A157" s="2">
         <v>41244</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>1426.18994140625</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:2">
+      <c r="A158" s="2">
         <v>41275</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>1498.109985351562</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:2">
+      <c r="A159" s="2">
         <v>41306</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>1514.680053710938</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:2">
+      <c r="A160" s="2">
         <v>41334</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>1569.18994140625</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:2">
+      <c r="A161" s="2">
         <v>41365</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>1597.569946289062</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:2">
+      <c r="A162" s="2">
         <v>41395</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>1630.739990234375</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:2">
+      <c r="A163" s="2">
         <v>41426</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>1606.280029296875</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:2">
+      <c r="A164" s="2">
         <v>41456</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>1685.72998046875</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:2">
+      <c r="A165" s="2">
         <v>41487</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>1632.969970703125</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:2">
+      <c r="A166" s="2">
         <v>41518</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>1681.550048828125</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:2">
+      <c r="A167" s="2">
         <v>41548</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>1756.5400390625</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:2">
+      <c r="A168" s="2">
         <v>41579</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>1805.81005859375</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:2">
+      <c r="A169" s="2">
         <v>41609</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>1848.359985351562</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:2">
+      <c r="A170" s="2">
         <v>41640</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>1782.589965820312</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:2">
+      <c r="A171" s="2">
         <v>41671</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>1859.449951171875</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:2">
+      <c r="A172" s="2">
         <v>41699</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>1872.339965820312</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:2">
+      <c r="A173" s="2">
         <v>41730</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>1883.949951171875</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:2">
+      <c r="A174" s="2">
         <v>41760</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>1923.569946289062</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:2">
+      <c r="A175" s="2">
         <v>41791</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>1960.22998046875</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:2">
+      <c r="A176" s="2">
         <v>41821</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>1930.670043945312</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:2">
+      <c r="A177" s="2">
         <v>41852</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>2003.369995117188</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:2">
+      <c r="A178" s="2">
         <v>41883</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>1972.2900390625</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:2">
+      <c r="A179" s="2">
         <v>41913</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>2018.050048828125</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:2">
+      <c r="A180" s="2">
         <v>41944</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>2067.56005859375</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:2">
+      <c r="A181" s="2">
         <v>41974</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>2058.89990234375</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:2">
+      <c r="A182" s="2">
         <v>42005</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>1994.989990234375</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:2">
+      <c r="A183" s="2">
         <v>42036</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>2104.5</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:2">
+      <c r="A184" s="2">
         <v>42064</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>2067.889892578125</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:2">
+      <c r="A185" s="2">
         <v>42095</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>2085.510009765625</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:2">
+      <c r="A186" s="2">
         <v>42125</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>2107.389892578125</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:2">
+      <c r="A187" s="2">
         <v>42156</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>2063.110107421875</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:2">
+      <c r="A188" s="2">
         <v>42186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>2103.840087890625</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:2">
+      <c r="A189" s="2">
         <v>42217</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>1972.180053710938</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:2">
+      <c r="A190" s="2">
         <v>42248</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>1920.030029296875</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:2">
+      <c r="A191" s="2">
         <v>42278</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>2079.360107421875</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:2">
+      <c r="A192" s="2">
         <v>42309</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>2080.409912109375</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:2">
+      <c r="A193" s="2">
         <v>42339</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>2043.93994140625</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:2">
+      <c r="A194" s="2">
         <v>42370</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>1940.239990234375</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:2">
+      <c r="A195" s="2">
         <v>42401</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>1932.22998046875</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:2">
+      <c r="A196" s="2">
         <v>42430</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>2059.739990234375</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:2">
+      <c r="A197" s="2">
         <v>42461</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>2065.300048828125</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:2">
+      <c r="A198" s="2">
         <v>42491</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>2096.949951171875</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:2">
+      <c r="A199" s="2">
         <v>42522</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>2098.860107421875</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:2">
+      <c r="A200" s="2">
         <v>42552</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>2173.60009765625</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:2">
+      <c r="A201" s="2">
         <v>42583</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>2170.949951171875</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:2">
+      <c r="A202" s="2">
         <v>42614</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>2168.27001953125</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:2">
+      <c r="A203" s="2">
         <v>42644</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>2126.14990234375</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:2">
+      <c r="A204" s="2">
         <v>42675</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>2198.81005859375</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:2">
+      <c r="A205" s="2">
         <v>42705</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>2238.830078125</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:2">
+      <c r="A206" s="2">
         <v>42736</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>2278.8701171875</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:2">
+      <c r="A207" s="2">
         <v>42767</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>2363.639892578125</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:2">
+      <c r="A208" s="2">
         <v>42795</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>2362.719970703125</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:2">
+      <c r="A209" s="2">
         <v>42826</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>2384.199951171875</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:2">
+      <c r="A210" s="2">
         <v>42856</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>2411.800048828125</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:2">
+      <c r="A211" s="2">
         <v>42887</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>2423.409912109375</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:2">
+      <c r="A212" s="2">
         <v>42917</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>2470.300048828125</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:2">
+      <c r="A213" s="2">
         <v>42948</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>2471.64990234375</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:2">
+      <c r="A214" s="2">
         <v>42979</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>2519.360107421875</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:2">
+      <c r="A215" s="2">
         <v>43009</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>2575.260009765625</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:2">
+      <c r="A216" s="2">
         <v>43040</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>2647.580078125</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:2">
+      <c r="A217" s="2">
         <v>43070</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>2673.610107421875</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:2">
+      <c r="A218" s="2">
         <v>43101</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>2823.81005859375</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:2">
+      <c r="A219" s="2">
         <v>43132</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>2713.830078125</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:2">
+      <c r="A220" s="2">
         <v>43160</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>2640.8701171875</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:2">
+      <c r="A221" s="2">
         <v>43191</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>2648.050048828125</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:2">
+      <c r="A222" s="2">
         <v>43221</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>2705.27001953125</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:2">
+      <c r="A223" s="2">
         <v>43252</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>2718.3701171875</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:2">
+      <c r="A224" s="2">
         <v>43282</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>2816.2900390625</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:2">
+      <c r="A225" s="2">
         <v>43313</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>2901.52001953125</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:2">
+      <c r="A226" s="2">
         <v>43344</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>2913.97998046875</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:2">
+      <c r="A227" s="2">
         <v>43374</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>2711.739990234375</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:2">
+      <c r="A228" s="2">
         <v>43405</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>2760.169921875</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:2">
+      <c r="A229" s="2">
         <v>43435</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>2506.85009765625</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:2">
+      <c r="A230" s="2">
         <v>43466</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>2704.10009765625</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:2">
+      <c r="A231" s="2">
         <v>43497</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>2784.489990234375</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:2">
+      <c r="A232" s="2">
         <v>43525</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>2834.39990234375</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:2">
+      <c r="A233" s="2">
         <v>43556</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>2945.830078125</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:2">
+      <c r="A234" s="2">
         <v>43586</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>2752.06005859375</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:2">
+      <c r="A235" s="2">
         <v>43617</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>2941.760009765625</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:2">
+      <c r="A236" s="2">
         <v>43647</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>2980.3798828125</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:2">
+      <c r="A237" s="2">
         <v>43678</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>2926.4599609375</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:2">
+      <c r="A238" s="2">
         <v>43709</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>2976.739990234375</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:2">
+      <c r="A239" s="2">
         <v>43739</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>3037.56005859375</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:2">
+      <c r="A240" s="2">
         <v>43770</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>3140.97998046875</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:2">
+      <c r="A241" s="2">
         <v>43800</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>3230.780029296875</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:2">
+      <c r="A242" s="2">
         <v>43831</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>3225.52001953125</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:2">
+      <c r="A243" s="2">
         <v>43862</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>2954.219970703125</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:2">
+      <c r="A244" s="2">
         <v>43891</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>2584.590087890625</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:2">
+      <c r="A245" s="2">
         <v>43922</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>2912.429931640625</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:2">
+      <c r="A246" s="2">
         <v>43952</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>3044.31005859375</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:2">
+      <c r="A247" s="2">
         <v>43983</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>3100.2900390625</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:2">
+      <c r="A248" s="2">
         <v>44013</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>3271.1201171875</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:2">
+      <c r="A249" s="2">
         <v>44044</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>3500.31005859375</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:2">
+      <c r="A250" s="2">
         <v>44075</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>3363</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:2">
+      <c r="A251" s="2">
         <v>44105</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>3269.9599609375</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:2">
+      <c r="A252" s="2">
         <v>44136</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>3621.6298828125</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:2">
+      <c r="A253" s="2">
         <v>44166</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>3756.070068359375</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:2">
+      <c r="A254" s="2">
         <v>44197</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>3714.239990234375</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:2">
+      <c r="A255" s="2">
         <v>44228</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>3811.14990234375</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:2">
+      <c r="A256" s="2">
         <v>44256</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>3972.889892578125</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:2">
+      <c r="A257" s="2">
         <v>44287</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>4181.169921875</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="258" spans="1:2">
+      <c r="A258" s="2">
         <v>44317</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>4204.10986328125</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:2">
+      <c r="A259" s="2">
         <v>44348</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>4297.5</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:2">
+      <c r="A260" s="2">
         <v>44378</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>4395.259765625</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:2">
+      <c r="A261" s="2">
         <v>44409</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>4522.68017578125</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:2">
+      <c r="A262" s="2">
         <v>44440</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>4307.5400390625</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="263" spans="1:2">
+      <c r="A263" s="2">
         <v>44470</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>4605.3798828125</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="264" spans="1:2">
+      <c r="A264" s="2">
         <v>44501</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>4567</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="265" spans="1:2">
+      <c r="A265" s="2">
         <v>44531</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>4766.18017578125</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="266" spans="1:2">
+      <c r="A266" s="2">
         <v>44562</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>4515.5498046875</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="267" spans="1:2">
+      <c r="A267" s="2">
         <v>44593</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>4373.93994140625</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="268" spans="1:2">
+      <c r="A268" s="2">
         <v>44621</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>4530.41015625</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="269" spans="1:2">
+      <c r="A269" s="2">
         <v>44652</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>4131.93017578125</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="270" spans="1:2">
+      <c r="A270" s="2">
         <v>44682</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>4132.14990234375</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="271" spans="1:2">
+      <c r="A271" s="2">
         <v>44713</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>3785.3798828125</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="272" spans="1:2">
+      <c r="A272" s="2">
         <v>44743</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>4130.2900390625</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="273" spans="1:2">
+      <c r="A273" s="2">
         <v>44774</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>3955</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="274" spans="1:2">
+      <c r="A274" s="2">
         <v>44805</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>3585.6201171875</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="275" spans="1:2">
+      <c r="A275" s="2">
         <v>44835</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>3871.97998046875</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="276" spans="1:2">
+      <c r="A276" s="2">
         <v>44866</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>4080.110107421875</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="277" spans="1:2">
+      <c r="A277" s="2">
         <v>44896</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>3839.5</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="278" spans="1:2">
+      <c r="A278" s="2">
         <v>44927</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>4076.60009765625</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="279" spans="1:2">
+      <c r="A279" s="2">
         <v>44958</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>3970.14990234375</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="280" spans="1:2">
+      <c r="A280" s="2">
         <v>44986</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>4109.31005859375</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="281" spans="1:2">
+      <c r="A281" s="2">
         <v>45017</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>4169.47998046875</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="282" spans="1:2">
+      <c r="A282" s="2">
         <v>45047</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>4179.830078125</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="283" spans="1:2">
+      <c r="A283" s="2">
         <v>45078</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>4450.3798828125</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="284" spans="1:2">
+      <c r="A284" s="2">
         <v>45108</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>4588.9599609375</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="285" spans="1:2">
+      <c r="A285" s="2">
         <v>45139</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>4507.66015625</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="286" spans="1:2">
+      <c r="A286" s="2">
         <v>45170</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>4288.0498046875</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="287" spans="1:2">
+      <c r="A287" s="2">
         <v>45200</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>4193.7998046875</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="288" spans="1:2">
+      <c r="A288" s="2">
         <v>45231</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>4567.7998046875</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="289" spans="1:2">
+      <c r="A289" s="2">
         <v>45261</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>4769.830078125</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="290" spans="1:2">
+      <c r="A290" s="2">
         <v>45292</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>4845.64990234375</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:2">
+      <c r="A291" s="2">
         <v>45323</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>5096.27001953125</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:2">
+      <c r="A292" s="2">
         <v>45352</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>5254.35009765625</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="293" spans="1:2">
+      <c r="A293" s="2">
         <v>45383</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>5035.68994140625</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:2">
+      <c r="A294" s="2">
         <v>45413</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>5277.509765625</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:2">
+      <c r="A295" s="2">
         <v>45444</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>5460.47998046875</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="296" spans="1:2">
+      <c r="A296" s="2">
         <v>45474</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>5522.2998046875</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:2">
+      <c r="A297" s="2">
         <v>45505</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>5648.39990234375</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/sp500_data.xlsx
+++ b/Data/sp500_data.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Beta Values" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cyclicality Labels" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B297"/>
+  <dimension ref="A1:B298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2817,7 +2819,51 @@
         <v>5648.39990234375</v>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B298" t="n">
+        <v>5408.419921875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Data/sp500_data.xlsx
+++ b/Data/sp500_data.xlsx
@@ -7,9 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Beta Values" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cyclicality Labels" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="adj_close" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B298"/>
+  <dimension ref="A1:B294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +445,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>^GSPC CLOSE</t>
+          <t>^GSPC_AC</t>
         </is>
       </c>
     </row>
@@ -2795,75 +2793,7 @@
         <v>5277.509765625</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B295" t="n">
-        <v>5460.47998046875</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="B296" t="n">
-        <v>5522.2998046875</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
-        <v>45505</v>
-      </c>
-      <c r="B297" t="n">
-        <v>5648.39990234375</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
-        <v>45536</v>
-      </c>
-      <c r="B298" t="n">
-        <v>5408.419921875</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>